--- a/medicine/Psychotrope/Brut_Sans_Année/Brut_Sans_Année.xlsx
+++ b/medicine/Psychotrope/Brut_Sans_Année/Brut_Sans_Année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Brut_Sans_Ann%C3%A9e</t>
+          <t>Brut_Sans_Année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Brut Sans Année, ou “BSA”, est le type de champagne le plus vendu.
 Les maisons de champagne produisent toutes des champagnes différents qui se distinguent les uns des autres par les raisins choisis, la fermentation, l'assemblage, l'élevage et le dosage. 
